--- a/form_order_.xlsx
+++ b/form_order_.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">Tên sản phẩm</t>
   </si>
@@ -28,22 +28,40 @@
     <t xml:space="preserve">Danh mục</t>
   </si>
   <si>
+    <t xml:space="preserve">Giá vốn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Giá bán</t>
   </si>
   <si>
-    <t xml:space="preserve">Giá nhập</t>
-  </si>
-  <si>
     <t xml:space="preserve">Số lượng</t>
   </si>
   <si>
+    <t xml:space="preserve">ĐVT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDSD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gọng kính RB 2665</t>
   </si>
   <si>
     <t xml:space="preserve">Kính hiệu</t>
   </si>
   <si>
-    <t xml:space="preserve">Gọng kính RB 2666</t>
+    <t xml:space="preserve">Cái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thuốc nhỏ mắt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thuốc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày nhỏ 2 lần</t>
   </si>
   <si>
     <t xml:space="preserve">Gọng kính RB 2667</t>
@@ -160,13 +178,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.66"/>
@@ -191,62 +209,80 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="n">
+        <v>185000</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>2250000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1850000</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>2250001</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1850000</v>
+        <v>15000</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="2" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>2250002</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>1850000</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/form_order_.xlsx
+++ b/form_order_.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Mã sản phẩm</t>
+  </si>
   <si>
     <t xml:space="preserve">Tên sản phẩm</t>
   </si>
@@ -43,28 +46,43 @@
     <t xml:space="preserve">HDSD</t>
   </si>
   <si>
-    <t xml:space="preserve">Gọng kính RB 2665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kính hiệu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cái</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thuốc nhỏ mắt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thuốc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lọ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày nhỏ 2 lần</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gọng kính RB 2667</t>
+    <t xml:space="preserve">Phân loại 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lens 1 day no color S-0.00 C-0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lens 1 day no color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30000</t>
   </si>
 </sst>
 </file>
@@ -73,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -99,10 +117,17 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -148,16 +173,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,107 +219,292 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="4" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="7" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>185000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
+    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1850000</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2250002</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
